--- a/src/test/resources/testData/Attribute.xlsx
+++ b/src/test/resources/testData/Attribute.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78840452-C062-4636-A662-BE076E15E816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2686DCB0-51FE-46BD-88BF-0E6D65F69CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="2088" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>DD.MM.YYYY HH:MM</t>
   </si>
   <si>
-    <t>Goal</t>
-  </si>
-  <si>
     <t>Multiple Select</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>TestAutomationAtt7</t>
+  </si>
+  <si>
+    <t>Account</t>
   </si>
 </sst>
 </file>
@@ -291,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -314,11 +314,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -340,6 +353,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,7 +580,7 @@
   <dimension ref="A1:X908"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -632,7 +649,7 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -648,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>18</v>
@@ -668,7 +685,7 @@
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>24</v>
@@ -686,23 +703,23 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="8" t="s">
-        <v>68</v>
+      <c r="N2" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="S2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -714,10 +731,10 @@
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -732,23 +749,23 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="8" t="s">
-        <v>68</v>
+      <c r="N3" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -758,10 +775,10 @@
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -776,23 +793,23 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="8" t="s">
-        <v>68</v>
+      <c r="N4" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
@@ -802,10 +819,10 @@
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -820,23 +837,23 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="8" t="s">
-        <v>68</v>
+      <c r="N5" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
@@ -846,10 +863,10 @@
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -864,23 +881,23 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="8" t="s">
-        <v>68</v>
+      <c r="N6" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -890,10 +907,10 @@
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -908,23 +925,23 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="8" t="s">
-        <v>68</v>
+      <c r="N7" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -934,10 +951,10 @@
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -952,23 +969,23 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>26</v>
+      <c r="N8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -1011,7 +1028,7 @@
       <c r="B12" s="2"/>
       <c r="J12" s="1"/>
       <c r="K12" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>

--- a/src/test/resources/testData/Attribute.xlsx
+++ b/src/test/resources/testData/Attribute.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2686DCB0-51FE-46BD-88BF-0E6D65F69CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1CA7B5-BCE0-45BF-A056-88CCF080CEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>Code</t>
   </si>
@@ -226,13 +226,13 @@
     <t>TestAutomationAtt6</t>
   </si>
   <si>
-    <t>REGRESSION</t>
-  </si>
-  <si>
     <t>TestAutomationAtt7</t>
   </si>
   <si>
     <t>Account</t>
+  </si>
+  <si>
+    <t>ACCOUNT_INFO</t>
   </si>
 </sst>
 </file>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X908"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -704,10 +704,10 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>32</v>
@@ -750,10 +750,10 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>35</v>
@@ -794,10 +794,10 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>52</v>
@@ -838,10 +838,10 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>36</v>
@@ -882,10 +882,10 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>37</v>
@@ -926,10 +926,10 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>38</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>31</v>
@@ -970,10 +970,10 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>39</v>
@@ -1027,9 +1027,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="K12" s="8"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>

--- a/src/test/resources/testData/Attribute.xlsx
+++ b/src/test/resources/testData/Attribute.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1CA7B5-BCE0-45BF-A056-88CCF080CEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ECE455-0883-416B-80EA-2BD7279653B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,31 +208,31 @@
     <t>KZ-EXAMPLE-7</t>
   </si>
   <si>
-    <t>TestAutomationAtt1</t>
-  </si>
-  <si>
-    <t>TestAutomationAtt2</t>
-  </si>
-  <si>
-    <t>TestAutomationAtt3</t>
-  </si>
-  <si>
-    <t>TestAutomationAtt4</t>
-  </si>
-  <si>
-    <t>TestAutomationAtt5</t>
-  </si>
-  <si>
-    <t>TestAutomationAtt6</t>
-  </si>
-  <si>
-    <t>TestAutomationAtt7</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>ACCOUNT_INFO</t>
+    <t>PRODUCT_GROUP</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>TestAutomation - 1</t>
+  </si>
+  <si>
+    <t>TestAutomation - 2</t>
+  </si>
+  <si>
+    <t>TestAutomation - 3</t>
+  </si>
+  <si>
+    <t>TestAutomation - 4</t>
+  </si>
+  <si>
+    <t>TestAutomation - 5</t>
+  </si>
+  <si>
+    <t>TestAutomation - 6</t>
+  </si>
+  <si>
+    <t>TestAutomation - 7</t>
   </si>
 </sst>
 </file>
@@ -270,11 +270,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="162"/>
     </font>
   </fonts>
   <fills count="3">
@@ -291,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -314,24 +311,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -352,11 +336,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X908"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -649,7 +628,7 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -685,7 +664,7 @@
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>24</v>
@@ -703,11 +682,11 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="10" t="s">
-        <v>69</v>
+      <c r="N2" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>32</v>
@@ -731,7 +710,7 @@
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>26</v>
@@ -749,11 +728,11 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="10" t="s">
-        <v>69</v>
+      <c r="N3" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>35</v>
@@ -775,7 +754,7 @@
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>27</v>
@@ -793,11 +772,11 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="10" t="s">
-        <v>69</v>
+      <c r="N4" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>52</v>
@@ -819,7 +798,7 @@
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>28</v>
@@ -837,11 +816,11 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="10" t="s">
-        <v>69</v>
+      <c r="N5" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>36</v>
@@ -863,7 +842,7 @@
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -881,11 +860,11 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="10" t="s">
-        <v>69</v>
+      <c r="N6" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>37</v>
@@ -907,7 +886,7 @@
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>30</v>
@@ -925,11 +904,11 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="10" t="s">
-        <v>69</v>
+      <c r="N7" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>38</v>
@@ -951,7 +930,7 @@
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>31</v>
@@ -969,11 +948,11 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="10" t="s">
-        <v>69</v>
+      <c r="N8" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>39</v>
@@ -1027,7 +1006,6 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="8"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2063,7 +2041,11 @@
     <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:V499" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;11&amp;KA80000 PUBLIC</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/src/test/resources/testData/Attribute.xlsx
+++ b/src/test/resources/testData/Attribute.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ECE455-0883-416B-80EA-2BD7279653B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FE9921-F9A3-4687-87EC-67CE4BD02CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4296" yWindow="-10644" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X908"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
